--- a/kradata/xlsx/dailyAllTrainDetail_20230605_서울.xlsx
+++ b/kradata/xlsx/dailyAllTrainDetail_20230605_서울.xlsx
@@ -125,6 +125,9 @@
     <t>라온더맨</t>
   </si>
   <si>
+    <t>국6</t>
+  </si>
+  <si>
     <t>이혁</t>
   </si>
   <si>
@@ -183,9 +186,6 @@
   </si>
   <si>
     <t>메티스선더</t>
-  </si>
-  <si>
-    <t>국6</t>
   </si>
   <si>
     <t>김효정</t>
@@ -2277,19 +2277,19 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -2306,31 +2306,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
       <c r="J6" t="s">
         <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -2341,10 +2341,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -2353,10 +2353,10 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -2388,13 +2388,13 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
         <v>27</v>
@@ -2411,13 +2411,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2435,7 +2435,7 @@
         <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -2452,19 +2452,19 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
@@ -2505,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2528,7 +2528,7 @@
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
         <v>74</v>
@@ -2540,7 +2540,7 @@
         <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -2557,7 +2557,7 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -2592,7 +2592,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -2610,7 +2610,7 @@
         <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -2627,7 +2627,7 @@
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>
@@ -2656,7 +2656,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>93</v>
@@ -2732,7 +2732,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
         <v>88</v>
@@ -2750,7 +2750,7 @@
         <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -2802,7 +2802,7 @@
         <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
         <v>106</v>
@@ -2820,7 +2820,7 @@
         <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -2837,7 +2837,7 @@
         <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
@@ -2855,7 +2855,7 @@
         <v>27</v>
       </c>
       <c r="K21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -2872,7 +2872,7 @@
         <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -2890,7 +2890,7 @@
         <v>92</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -2907,7 +2907,7 @@
         <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -2925,7 +2925,7 @@
         <v>92</v>
       </c>
       <c r="K23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -2954,7 +2954,7 @@
         <v>120</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -2977,7 +2977,7 @@
         <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>23</v>
@@ -3006,7 +3006,7 @@
         <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>123</v>
@@ -3065,7 +3065,7 @@
         <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -3082,7 +3082,7 @@
         <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
         <v>127</v>
@@ -3094,13 +3094,13 @@
         <v>132</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -3129,13 +3129,13 @@
         <v>90</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s">
         <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -3152,7 +3152,7 @@
         <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
@@ -3164,13 +3164,13 @@
         <v>138</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s">
         <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
@@ -3181,13 +3181,13 @@
         <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
         <v>127</v>
@@ -3199,13 +3199,13 @@
         <v>138</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s">
         <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -3222,7 +3222,7 @@
         <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
         <v>142</v>
@@ -3234,13 +3234,13 @@
         <v>132</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s">
         <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -3251,13 +3251,13 @@
         <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
         <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
         <v>23</v>
@@ -3275,7 +3275,7 @@
         <v>27</v>
       </c>
       <c r="K33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -3327,25 +3327,25 @@
         <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
         <v>152</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s">
         <v>27</v>
       </c>
       <c r="K35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
@@ -3374,13 +3374,13 @@
         <v>156</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s">
         <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
@@ -3397,7 +3397,7 @@
         <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
         <v>23</v>
@@ -3406,16 +3406,16 @@
         <v>159</v>
       </c>
       <c r="H37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s">
         <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
@@ -3461,7 +3461,7 @@
         <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>163</v>
@@ -3485,7 +3485,7 @@
         <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -3511,16 +3511,16 @@
         <v>169</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s">
         <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
@@ -3555,7 +3555,7 @@
         <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -3584,13 +3584,13 @@
         <v>155</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s">
         <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -3607,10 +3607,10 @@
         <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
         <v>177</v>
@@ -3625,7 +3625,7 @@
         <v>18</v>
       </c>
       <c r="K43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -3642,7 +3642,7 @@
         <v>179</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
         <v>23</v>
@@ -3660,7 +3660,7 @@
         <v>27</v>
       </c>
       <c r="K44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -3680,7 +3680,7 @@
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>175</v>
@@ -3689,7 +3689,7 @@
         <v>155</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s">
         <v>18</v>
@@ -3712,7 +3712,7 @@
         <v>183</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
         <v>23</v>
@@ -3730,7 +3730,7 @@
         <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
@@ -3741,13 +3741,13 @@
         <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
         <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
@@ -3791,7 +3791,7 @@
         <v>120</v>
       </c>
       <c r="H48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s">
         <v>69</v>
@@ -3800,7 +3800,7 @@
         <v>27</v>
       </c>
       <c r="K48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -3811,13 +3811,13 @@
         <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
         <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
         <v>88</v>
@@ -3852,25 +3852,25 @@
         <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>161</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s">
         <v>27</v>
       </c>
       <c r="K50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -3922,7 +3922,7 @@
         <v>197</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
         <v>198</v>
@@ -3969,13 +3969,13 @@
         <v>202</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J53" t="s">
         <v>27</v>
       </c>
       <c r="K53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
@@ -3992,7 +3992,7 @@
         <v>203</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
         <v>23</v>
@@ -4004,13 +4004,13 @@
         <v>204</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s">
         <v>27</v>
       </c>
       <c r="K54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
@@ -4027,7 +4027,7 @@
         <v>205</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
         <v>23</v>
@@ -4039,13 +4039,13 @@
         <v>206</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s">
         <v>27</v>
       </c>
       <c r="K55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56">
@@ -4062,7 +4062,7 @@
         <v>207</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
         <v>23</v>
@@ -4097,7 +4097,7 @@
         <v>210</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
         <v>23</v>
@@ -4173,7 +4173,7 @@
         <v>23</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s">
         <v>25</v>
@@ -4214,7 +4214,7 @@
         <v>222</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J60" t="s">
         <v>27</v>
@@ -4237,7 +4237,7 @@
         <v>224</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
         <v>23</v>
@@ -4272,7 +4272,7 @@
         <v>226</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
         <v>142</v>
@@ -4290,7 +4290,7 @@
         <v>229</v>
       </c>
       <c r="K62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
@@ -4377,7 +4377,7 @@
         <v>237</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
         <v>238</v>
@@ -4389,13 +4389,13 @@
         <v>206</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J65" t="s">
         <v>75</v>
       </c>
       <c r="K65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
@@ -4406,7 +4406,7 @@
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
         <v>240</v>
@@ -4430,7 +4430,7 @@
         <v>27</v>
       </c>
       <c r="K66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
@@ -4465,7 +4465,7 @@
         <v>229</v>
       </c>
       <c r="K67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
@@ -4587,7 +4587,7 @@
         <v>250</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
         <v>23</v>
@@ -4622,7 +4622,7 @@
         <v>253</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
         <v>23</v>
@@ -4640,7 +4640,7 @@
         <v>27</v>
       </c>
       <c r="K72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
@@ -4669,13 +4669,13 @@
         <v>120</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J73" t="s">
         <v>27</v>
       </c>
       <c r="K73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74">
@@ -4721,7 +4721,7 @@
         <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s">
         <v>257</v>
@@ -4745,7 +4745,7 @@
         <v>18</v>
       </c>
       <c r="K75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
@@ -4771,7 +4771,7 @@
         <v>178</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -4832,7 +4832,7 @@
         <v>262</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
         <v>23</v>
@@ -4861,7 +4861,7 @@
         <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D79" t="s">
         <v>265</v>
@@ -4920,7 +4920,7 @@
         <v>27</v>
       </c>
       <c r="K80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
@@ -4984,7 +4984,7 @@
         <v>222</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J82" t="s">
         <v>27</v>
@@ -5019,13 +5019,13 @@
         <v>275</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J83" t="s">
         <v>18</v>
       </c>
       <c r="K83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
@@ -5054,7 +5054,7 @@
         <v>277</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J84" t="s">
         <v>18</v>
@@ -5095,7 +5095,7 @@
         <v>18</v>
       </c>
       <c r="K85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86">
@@ -5118,13 +5118,13 @@
         <v>174</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s">
         <v>280</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J86" t="s">
         <v>18</v>
@@ -5159,13 +5159,13 @@
         <v>285</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J87" t="s">
         <v>18</v>
       </c>
       <c r="K87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
@@ -5182,7 +5182,7 @@
         <v>286</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
         <v>106</v>
@@ -5229,7 +5229,7 @@
         <v>289</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J89" t="s">
         <v>27</v>
@@ -5264,13 +5264,13 @@
         <v>85</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J90" t="s">
         <v>18</v>
       </c>
       <c r="K90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91">
@@ -5299,13 +5299,13 @@
         <v>119</v>
       </c>
       <c r="I91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J91" t="s">
         <v>27</v>
       </c>
       <c r="K91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92">
@@ -5334,13 +5334,13 @@
         <v>294</v>
       </c>
       <c r="I92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J92" t="s">
         <v>92</v>
       </c>
       <c r="K92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93">
@@ -5357,7 +5357,7 @@
         <v>295</v>
       </c>
       <c r="E93" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
         <v>168</v>
@@ -5369,13 +5369,13 @@
         <v>108</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J93" t="s">
         <v>27</v>
       </c>
       <c r="K93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94">
@@ -5404,13 +5404,13 @@
         <v>277</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J94" t="s">
         <v>18</v>
       </c>
       <c r="K94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95">
@@ -5427,7 +5427,7 @@
         <v>297</v>
       </c>
       <c r="E95" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
         <v>23</v>
@@ -5436,7 +5436,7 @@
         <v>111</v>
       </c>
       <c r="H95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I95" t="s">
         <v>34</v>
@@ -5445,7 +5445,7 @@
         <v>27</v>
       </c>
       <c r="K95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96">
@@ -5462,7 +5462,7 @@
         <v>298</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
         <v>23</v>
@@ -5480,7 +5480,7 @@
         <v>18</v>
       </c>
       <c r="K96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97">
@@ -5497,7 +5497,7 @@
         <v>300</v>
       </c>
       <c r="E97" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
         <v>23</v>
@@ -5515,7 +5515,7 @@
         <v>18</v>
       </c>
       <c r="K97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98">
@@ -5550,7 +5550,7 @@
         <v>27</v>
       </c>
       <c r="K98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99">
@@ -5567,7 +5567,7 @@
         <v>302</v>
       </c>
       <c r="E99" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
         <v>106</v>
@@ -5579,7 +5579,7 @@
         <v>102</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J99" t="s">
         <v>27</v>
@@ -5602,7 +5602,7 @@
         <v>303</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
         <v>23</v>
@@ -5611,7 +5611,7 @@
         <v>111</v>
       </c>
       <c r="H100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I100" t="s">
         <v>34</v>
@@ -5620,7 +5620,7 @@
         <v>27</v>
       </c>
       <c r="K100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
@@ -5655,7 +5655,7 @@
         <v>18</v>
       </c>
       <c r="K101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102">
@@ -5690,7 +5690,7 @@
         <v>27</v>
       </c>
       <c r="K102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103">
@@ -5707,7 +5707,7 @@
         <v>308</v>
       </c>
       <c r="E103" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
         <v>23</v>
@@ -5716,16 +5716,16 @@
         <v>159</v>
       </c>
       <c r="H103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J103" t="s">
         <v>27</v>
       </c>
       <c r="K103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104">
@@ -5736,7 +5736,7 @@
         <v>223</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D104" t="s">
         <v>309</v>
@@ -5760,7 +5760,7 @@
         <v>18</v>
       </c>
       <c r="K104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105">
@@ -5812,7 +5812,7 @@
         <v>317</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
         <v>310</v>
@@ -5824,7 +5824,7 @@
         <v>318</v>
       </c>
       <c r="I106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J106" t="s">
         <v>27</v>
@@ -5847,7 +5847,7 @@
         <v>319</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
         <v>274</v>
@@ -5865,7 +5865,7 @@
         <v>27</v>
       </c>
       <c r="K107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108">
@@ -5911,7 +5911,7 @@
         <v>35</v>
       </c>
       <c r="C109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D109" t="s">
         <v>323</v>
@@ -5935,7 +5935,7 @@
         <v>27</v>
       </c>
       <c r="K109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110">
@@ -5970,7 +5970,7 @@
         <v>18</v>
       </c>
       <c r="K110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111">
@@ -6034,7 +6034,7 @@
         <v>330</v>
       </c>
       <c r="I112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J112" t="s">
         <v>18</v>
@@ -6069,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="I113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J113" t="s">
         <v>27</v>
@@ -6104,7 +6104,7 @@
         <v>107</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J114" t="s">
         <v>18</v>
@@ -6127,7 +6127,7 @@
         <v>334</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
         <v>23</v>
@@ -6162,7 +6162,7 @@
         <v>335</v>
       </c>
       <c r="E116" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
         <v>23</v>
@@ -6180,7 +6180,7 @@
         <v>27</v>
       </c>
       <c r="K116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117">
@@ -6191,13 +6191,13 @@
         <v>157</v>
       </c>
       <c r="C117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D117" t="s">
         <v>337</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
         <v>23</v>
@@ -6215,7 +6215,7 @@
         <v>18</v>
       </c>
       <c r="K117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118">
@@ -6232,7 +6232,7 @@
         <v>339</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
         <v>88</v>
@@ -6250,7 +6250,7 @@
         <v>18</v>
       </c>
       <c r="K118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119">
@@ -6267,7 +6267,7 @@
         <v>341</v>
       </c>
       <c r="E119" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
         <v>23</v>
@@ -6276,7 +6276,7 @@
         <v>342</v>
       </c>
       <c r="H119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I119" t="s">
         <v>26</v>
@@ -6285,7 +6285,7 @@
         <v>27</v>
       </c>
       <c r="K119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120">
@@ -6314,13 +6314,13 @@
         <v>344</v>
       </c>
       <c r="I120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J120" t="s">
         <v>18</v>
       </c>
       <c r="K120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121">
@@ -6337,7 +6337,7 @@
         <v>345</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
         <v>88</v>
@@ -6355,7 +6355,7 @@
         <v>18</v>
       </c>
       <c r="K121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122">
@@ -6372,7 +6372,7 @@
         <v>346</v>
       </c>
       <c r="E122" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
         <v>198</v>
@@ -6384,13 +6384,13 @@
         <v>347</v>
       </c>
       <c r="I122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J122" t="s">
         <v>27</v>
       </c>
       <c r="K122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123">
@@ -6416,7 +6416,7 @@
         <v>100</v>
       </c>
       <c r="H123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I123" t="s">
         <v>91</v>
@@ -6425,7 +6425,7 @@
         <v>27</v>
       </c>
       <c r="K123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
@@ -6442,7 +6442,7 @@
         <v>349</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F124" t="s">
         <v>23</v>
@@ -6460,7 +6460,7 @@
         <v>27</v>
       </c>
       <c r="K124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125">
@@ -6477,7 +6477,7 @@
         <v>351</v>
       </c>
       <c r="E125" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
         <v>352</v>
@@ -6495,7 +6495,7 @@
         <v>27</v>
       </c>
       <c r="K125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
@@ -6524,7 +6524,7 @@
         <v>320</v>
       </c>
       <c r="I126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J126" t="s">
         <v>18</v>
@@ -6541,7 +6541,7 @@
         <v>135</v>
       </c>
       <c r="C127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D127" t="s">
         <v>355</v>
@@ -6559,13 +6559,13 @@
         <v>32</v>
       </c>
       <c r="I127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J127" t="s">
         <v>27</v>
       </c>
       <c r="K127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128">
@@ -6661,7 +6661,7 @@
         <v>100</v>
       </c>
       <c r="H130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I130" t="s">
         <v>91</v>
@@ -6670,7 +6670,7 @@
         <v>27</v>
       </c>
       <c r="K130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
@@ -6699,13 +6699,13 @@
         <v>344</v>
       </c>
       <c r="I131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J131" t="s">
         <v>27</v>
       </c>
       <c r="K131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132">
@@ -6792,7 +6792,7 @@
         <v>365</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
         <v>23</v>
@@ -6810,7 +6810,7 @@
         <v>27</v>
       </c>
       <c r="K134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
@@ -6839,13 +6839,13 @@
         <v>275</v>
       </c>
       <c r="I135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J135" t="s">
         <v>75</v>
       </c>
       <c r="K135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136">
@@ -6856,7 +6856,7 @@
         <v>95</v>
       </c>
       <c r="C136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D136" t="s">
         <v>367</v>
@@ -6897,7 +6897,7 @@
         <v>368</v>
       </c>
       <c r="E137" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
         <v>369</v>
@@ -6909,7 +6909,7 @@
         <v>342</v>
       </c>
       <c r="I137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J137" t="s">
         <v>18</v>
@@ -6932,19 +6932,19 @@
         <v>370</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F138" t="s">
         <v>23</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H138" t="s">
         <v>342</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J138" t="s">
         <v>27</v>
@@ -6967,7 +6967,7 @@
         <v>371</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
         <v>372</v>
@@ -6979,13 +6979,13 @@
         <v>374</v>
       </c>
       <c r="I139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J139" t="s">
         <v>27</v>
       </c>
       <c r="K139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140">
@@ -7031,13 +7031,13 @@
         <v>97</v>
       </c>
       <c r="C141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D141" t="s">
         <v>376</v>
       </c>
       <c r="E141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
         <v>58</v>
@@ -7049,13 +7049,13 @@
         <v>144</v>
       </c>
       <c r="I141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J141" t="s">
         <v>27</v>
       </c>
       <c r="K141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142">
@@ -7066,13 +7066,13 @@
         <v>97</v>
       </c>
       <c r="C142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D142" t="s">
         <v>377</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
         <v>58</v>
@@ -7084,13 +7084,13 @@
         <v>169</v>
       </c>
       <c r="I142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J142" t="s">
         <v>27</v>
       </c>
       <c r="K142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143">
@@ -7107,7 +7107,7 @@
         <v>378</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
         <v>372</v>
@@ -7125,7 +7125,7 @@
         <v>27</v>
       </c>
       <c r="K143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144">
@@ -7142,7 +7142,7 @@
         <v>379</v>
       </c>
       <c r="E144" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
         <v>23</v>
@@ -7177,7 +7177,7 @@
         <v>380</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
         <v>372</v>
@@ -7203,7 +7203,7 @@
         <v>145.0</v>
       </c>
       <c r="B146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C146" t="s">
         <v>76</v>
@@ -7238,7 +7238,7 @@
         <v>146.0</v>
       </c>
       <c r="B147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C147" t="s">
         <v>129</v>
@@ -7273,7 +7273,7 @@
         <v>147.0</v>
       </c>
       <c r="B148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C148" t="s">
         <v>109</v>
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="K148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149">
@@ -7308,7 +7308,7 @@
         <v>148.0</v>
       </c>
       <c r="B149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C149" t="s">
         <v>115</v>
@@ -7343,7 +7343,7 @@
         <v>149.0</v>
       </c>
       <c r="B150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C150" t="s">
         <v>35</v>
@@ -7352,7 +7352,7 @@
         <v>392</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
         <v>393</v>
@@ -7378,7 +7378,7 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C151" t="s">
         <v>157</v>
@@ -7405,7 +7405,7 @@
         <v>75</v>
       </c>
       <c r="K151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152">
@@ -7413,16 +7413,16 @@
         <v>151.0</v>
       </c>
       <c r="B152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D152" t="s">
         <v>397</v>
       </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F152" t="s">
         <v>398</v>
@@ -7434,13 +7434,13 @@
         <v>364</v>
       </c>
       <c r="I152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J152" t="s">
         <v>27</v>
       </c>
       <c r="K152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153">
@@ -7448,7 +7448,7 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C153" t="s">
         <v>97</v>
@@ -7483,7 +7483,7 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7492,7 +7492,7 @@
         <v>400</v>
       </c>
       <c r="E154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F154" t="s">
         <v>23</v>
@@ -7518,7 +7518,7 @@
         <v>154.0</v>
       </c>
       <c r="B155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C155" t="s">
         <v>187</v>
@@ -7527,7 +7527,7 @@
         <v>401</v>
       </c>
       <c r="E155" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
         <v>23</v>
@@ -7553,7 +7553,7 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C156" t="s">
         <v>356</v>
@@ -7562,7 +7562,7 @@
         <v>402</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F156" t="s">
         <v>23</v>
@@ -7588,7 +7588,7 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C157" t="s">
         <v>241</v>
@@ -7615,7 +7615,7 @@
         <v>92</v>
       </c>
       <c r="K157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158">
@@ -7623,7 +7623,7 @@
         <v>157.0</v>
       </c>
       <c r="B158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C158" t="s">
         <v>245</v>
@@ -7650,7 +7650,7 @@
         <v>18</v>
       </c>
       <c r="K158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159">
@@ -7667,7 +7667,7 @@
         <v>406</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
         <v>23</v>
@@ -7685,7 +7685,7 @@
         <v>27</v>
       </c>
       <c r="K159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160">
@@ -7720,7 +7720,7 @@
         <v>27</v>
       </c>
       <c r="K160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161">
@@ -7807,7 +7807,7 @@
         <v>412</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
         <v>23</v>
@@ -7842,7 +7842,7 @@
         <v>413</v>
       </c>
       <c r="E164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F164" t="s">
         <v>23</v>
@@ -7860,7 +7860,7 @@
         <v>27</v>
       </c>
       <c r="K164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="165">
@@ -7871,13 +7871,13 @@
         <v>258</v>
       </c>
       <c r="C165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D165" t="s">
         <v>414</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
         <v>23</v>
@@ -7912,7 +7912,7 @@
         <v>416</v>
       </c>
       <c r="E166" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
         <v>73</v>
@@ -7924,13 +7924,13 @@
         <v>221</v>
       </c>
       <c r="I166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J166" t="s">
         <v>27</v>
       </c>
       <c r="K166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="167">
@@ -7941,13 +7941,13 @@
         <v>258</v>
       </c>
       <c r="C167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D167" t="s">
         <v>417</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F167" t="s">
         <v>23</v>
@@ -7965,7 +7965,7 @@
         <v>27</v>
       </c>
       <c r="K167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="168">
@@ -7982,7 +7982,7 @@
         <v>418</v>
       </c>
       <c r="E168" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
         <v>238</v>
@@ -8000,7 +8000,7 @@
         <v>27</v>
       </c>
       <c r="K168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="169">
@@ -8052,7 +8052,7 @@
         <v>420</v>
       </c>
       <c r="E170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F170" t="s">
         <v>23</v>
@@ -8070,7 +8070,7 @@
         <v>27</v>
       </c>
       <c r="K170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171">
@@ -8087,7 +8087,7 @@
         <v>421</v>
       </c>
       <c r="E171" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F171" t="s">
         <v>23</v>
@@ -8105,7 +8105,7 @@
         <v>92</v>
       </c>
       <c r="K171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172">
@@ -8134,7 +8134,7 @@
         <v>311</v>
       </c>
       <c r="I172" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J172" t="s">
         <v>92</v>
@@ -8169,13 +8169,13 @@
         <v>103</v>
       </c>
       <c r="I173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J173" t="s">
         <v>18</v>
       </c>
       <c r="K173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174">
@@ -8192,7 +8192,7 @@
         <v>424</v>
       </c>
       <c r="E174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F174" t="s">
         <v>23</v>
@@ -8204,7 +8204,7 @@
         <v>169</v>
       </c>
       <c r="I174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J174" t="s">
         <v>27</v>
@@ -8221,7 +8221,7 @@
         <v>233</v>
       </c>
       <c r="C175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D175" t="s">
         <v>425</v>
@@ -8256,13 +8256,13 @@
         <v>233</v>
       </c>
       <c r="C176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D176" t="s">
         <v>426</v>
       </c>
       <c r="E176" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
         <v>23</v>
@@ -8280,7 +8280,7 @@
         <v>27</v>
       </c>
       <c r="K176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177">
@@ -8291,13 +8291,13 @@
         <v>233</v>
       </c>
       <c r="C177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D177" t="s">
         <v>427</v>
       </c>
       <c r="E177" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F177" t="s">
         <v>428</v>
@@ -8315,7 +8315,7 @@
         <v>27</v>
       </c>
       <c r="K177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178">
@@ -8332,7 +8332,7 @@
         <v>429</v>
       </c>
       <c r="E178" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
         <v>23</v>
@@ -8341,16 +8341,16 @@
         <v>430</v>
       </c>
       <c r="H178" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J178" t="s">
         <v>27</v>
       </c>
       <c r="K178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179">
@@ -8420,7 +8420,7 @@
         <v>75</v>
       </c>
       <c r="K180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="181">
@@ -8455,7 +8455,7 @@
         <v>27</v>
       </c>
       <c r="K181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="182">
@@ -8466,7 +8466,7 @@
         <v>187</v>
       </c>
       <c r="C182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D182" t="s">
         <v>437</v>
@@ -8475,7 +8475,7 @@
         <v>167</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
         <v>122</v>
@@ -8484,13 +8484,13 @@
         <v>275</v>
       </c>
       <c r="I182" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J182" t="s">
         <v>229</v>
       </c>
       <c r="K182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="183">
@@ -8507,7 +8507,7 @@
         <v>438</v>
       </c>
       <c r="E183" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F183" t="s">
         <v>23</v>
@@ -8624,7 +8624,7 @@
         <v>159</v>
       </c>
       <c r="I186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J186" t="s">
         <v>18</v>
@@ -8673,7 +8673,7 @@
         <v>187.0</v>
       </c>
       <c r="B188" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C188" t="s">
         <v>20</v>
@@ -8708,7 +8708,7 @@
         <v>188.0</v>
       </c>
       <c r="B189" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C189" t="s">
         <v>129</v>
@@ -8743,7 +8743,7 @@
         <v>189.0</v>
       </c>
       <c r="B190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C190" t="s">
         <v>115</v>
@@ -8778,7 +8778,7 @@
         <v>190.0</v>
       </c>
       <c r="B191" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C191" t="s">
         <v>223</v>
@@ -8813,7 +8813,7 @@
         <v>191.0</v>
       </c>
       <c r="B192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C192" t="s">
         <v>135</v>
@@ -8834,7 +8834,7 @@
         <v>202</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J192" t="s">
         <v>27</v>
@@ -8848,7 +8848,7 @@
         <v>192.0</v>
       </c>
       <c r="B193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C193" t="s">
         <v>86</v>
@@ -8883,7 +8883,7 @@
         <v>193.0</v>
       </c>
       <c r="B194" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C194" t="s">
         <v>95</v>
@@ -8918,16 +8918,16 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C195" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D195" t="s">
         <v>451</v>
       </c>
       <c r="E195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F195" t="s">
         <v>23</v>
@@ -8939,7 +8939,7 @@
         <v>294</v>
       </c>
       <c r="I195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J195" t="s">
         <v>27</v>
@@ -8953,7 +8953,7 @@
         <v>195.0</v>
       </c>
       <c r="B196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C196" t="s">
         <v>356</v>
@@ -8980,7 +8980,7 @@
         <v>75</v>
       </c>
       <c r="K196" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="197">
@@ -8988,7 +8988,7 @@
         <v>196.0</v>
       </c>
       <c r="B197" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C197" t="s">
         <v>241</v>
@@ -9023,7 +9023,7 @@
         <v>197.0</v>
       </c>
       <c r="B198" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C198" t="s">
         <v>193</v>
@@ -9032,7 +9032,7 @@
         <v>456</v>
       </c>
       <c r="E198" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F198" t="s">
         <v>73</v>
@@ -9050,7 +9050,7 @@
         <v>27</v>
       </c>
       <c r="K198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="199">
@@ -9058,7 +9058,7 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C199" t="s">
         <v>261</v>
@@ -9079,7 +9079,7 @@
         <v>373</v>
       </c>
       <c r="I199" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J199" t="s">
         <v>18</v>
@@ -9093,7 +9093,7 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C200" t="s">
         <v>62</v>
@@ -9102,7 +9102,7 @@
         <v>458</v>
       </c>
       <c r="E200" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F200" t="s">
         <v>354</v>
@@ -9114,7 +9114,7 @@
         <v>315</v>
       </c>
       <c r="I200" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J200" t="s">
         <v>27</v>
@@ -9128,7 +9128,7 @@
         <v>200.0</v>
       </c>
       <c r="B201" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C201" t="s">
         <v>64</v>
@@ -9149,7 +9149,7 @@
         <v>266</v>
       </c>
       <c r="I201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J201" t="s">
         <v>18</v>
@@ -9163,7 +9163,7 @@
         <v>201.0</v>
       </c>
       <c r="B202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C202" t="s">
         <v>269</v>
@@ -9190,7 +9190,7 @@
         <v>18</v>
       </c>
       <c r="K202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="203">
@@ -9260,7 +9260,7 @@
         <v>27</v>
       </c>
       <c r="K204" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="205">
@@ -9286,7 +9286,7 @@
         <v>311</v>
       </c>
       <c r="H205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I205" t="s">
         <v>69</v>
@@ -9295,7 +9295,7 @@
         <v>27</v>
       </c>
       <c r="K205" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206">
@@ -9312,7 +9312,7 @@
         <v>465</v>
       </c>
       <c r="E206" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F206" t="s">
         <v>23</v>
@@ -9330,7 +9330,7 @@
         <v>27</v>
       </c>
       <c r="K206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="207">
@@ -9341,13 +9341,13 @@
         <v>356</v>
       </c>
       <c r="C207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D207" t="s">
         <v>466</v>
       </c>
       <c r="E207" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F207" t="s">
         <v>23</v>
@@ -9365,7 +9365,7 @@
         <v>18</v>
       </c>
       <c r="K207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="208">
@@ -9376,7 +9376,7 @@
         <v>356</v>
       </c>
       <c r="C208" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D208" t="s">
         <v>467</v>
@@ -9400,7 +9400,7 @@
         <v>18</v>
       </c>
       <c r="K208" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="209">
@@ -9417,7 +9417,7 @@
         <v>468</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F209" t="s">
         <v>23</v>
@@ -9461,7 +9461,7 @@
         <v>342</v>
       </c>
       <c r="H210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I210" t="s">
         <v>26</v>
@@ -9487,7 +9487,7 @@
         <v>470</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F211" t="s">
         <v>88</v>
@@ -9505,7 +9505,7 @@
         <v>18</v>
       </c>
       <c r="K211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="212">
@@ -9604,7 +9604,7 @@
         <v>403</v>
       </c>
       <c r="I214" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J214" t="s">
         <v>27</v>
@@ -9680,7 +9680,7 @@
         <v>27</v>
       </c>
       <c r="K216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="217">
@@ -9726,7 +9726,7 @@
         <v>165</v>
       </c>
       <c r="C218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D218" t="s">
         <v>478</v>
@@ -9767,7 +9767,7 @@
         <v>479</v>
       </c>
       <c r="E219" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
         <v>428</v>
@@ -9779,13 +9779,13 @@
         <v>344</v>
       </c>
       <c r="I219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J219" t="s">
         <v>27</v>
       </c>
       <c r="K219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="220">
@@ -9814,13 +9814,13 @@
         <v>318</v>
       </c>
       <c r="I220" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J220" t="s">
         <v>18</v>
       </c>
       <c r="K220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="221">
@@ -9846,7 +9846,7 @@
         <v>347</v>
       </c>
       <c r="H221" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I221" t="s">
         <v>61</v>
@@ -9855,7 +9855,7 @@
         <v>27</v>
       </c>
       <c r="K221" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="222">
@@ -9872,7 +9872,7 @@
         <v>482</v>
       </c>
       <c r="E222" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F222" t="s">
         <v>352</v>
@@ -9884,13 +9884,13 @@
         <v>311</v>
       </c>
       <c r="I222" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J222" t="s">
         <v>27</v>
       </c>
       <c r="K222" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="223">
@@ -9901,13 +9901,13 @@
         <v>241</v>
       </c>
       <c r="C223" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D223" t="s">
         <v>483</v>
       </c>
       <c r="E223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F223" t="s">
         <v>369</v>
@@ -9916,16 +9916,16 @@
         <v>161</v>
       </c>
       <c r="H223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I223" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J223" t="s">
         <v>27</v>
       </c>
       <c r="K223" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="224">
@@ -9942,7 +9942,7 @@
         <v>484</v>
       </c>
       <c r="E224" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F224" t="s">
         <v>352</v>
@@ -9954,13 +9954,13 @@
         <v>275</v>
       </c>
       <c r="I224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J224" t="s">
         <v>27</v>
       </c>
       <c r="K224" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="225">
@@ -9977,7 +9977,7 @@
         <v>485</v>
       </c>
       <c r="E225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F225" t="s">
         <v>168</v>
@@ -9989,13 +9989,13 @@
         <v>103</v>
       </c>
       <c r="I225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J225" t="s">
         <v>18</v>
       </c>
       <c r="K225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="226">
@@ -10012,7 +10012,7 @@
         <v>486</v>
       </c>
       <c r="E226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F226" t="s">
         <v>23</v>
@@ -10030,7 +10030,7 @@
         <v>27</v>
       </c>
       <c r="K226" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="227">
@@ -10047,7 +10047,7 @@
         <v>487</v>
       </c>
       <c r="E227" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F227" t="s">
         <v>23</v>
@@ -10082,7 +10082,7 @@
         <v>489</v>
       </c>
       <c r="E228" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F228" t="s">
         <v>23</v>
@@ -10094,7 +10094,7 @@
         <v>164</v>
       </c>
       <c r="I228" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J228" t="s">
         <v>27</v>
@@ -10117,7 +10117,7 @@
         <v>490</v>
       </c>
       <c r="E229" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F229" t="s">
         <v>398</v>
@@ -10129,13 +10129,13 @@
         <v>311</v>
       </c>
       <c r="I229" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J229" t="s">
         <v>27</v>
       </c>
       <c r="K229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="230">
@@ -10152,7 +10152,7 @@
         <v>491</v>
       </c>
       <c r="E230" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F230" t="s">
         <v>306</v>
@@ -10164,13 +10164,13 @@
         <v>156</v>
       </c>
       <c r="I230" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J230" t="s">
         <v>75</v>
       </c>
       <c r="K230" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="231">
@@ -10187,7 +10187,7 @@
         <v>492</v>
       </c>
       <c r="E231" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F231" t="s">
         <v>189</v>
@@ -10199,13 +10199,13 @@
         <v>156</v>
       </c>
       <c r="I231" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J231" t="s">
         <v>75</v>
       </c>
       <c r="K231" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="232">
@@ -10222,7 +10222,7 @@
         <v>493</v>
       </c>
       <c r="E232" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F232" t="s">
         <v>23</v>
@@ -10234,13 +10234,13 @@
         <v>164</v>
       </c>
       <c r="I232" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J232" t="s">
         <v>27</v>
       </c>
       <c r="K232" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="233">
@@ -10269,7 +10269,7 @@
         <v>185</v>
       </c>
       <c r="I233" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J233" t="s">
         <v>27</v>
@@ -10292,7 +10292,7 @@
         <v>495</v>
       </c>
       <c r="E234" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F234" t="s">
         <v>496</v>
@@ -10310,7 +10310,7 @@
         <v>27</v>
       </c>
       <c r="K234" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="235">
@@ -10345,7 +10345,7 @@
         <v>18</v>
       </c>
       <c r="K235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="236">
@@ -10362,7 +10362,7 @@
         <v>499</v>
       </c>
       <c r="E236" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F236" t="s">
         <v>23</v>
@@ -10397,7 +10397,7 @@
         <v>500</v>
       </c>
       <c r="E237" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F237" t="s">
         <v>387</v>
@@ -10409,13 +10409,13 @@
         <v>209</v>
       </c>
       <c r="I237" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J237" t="s">
         <v>27</v>
       </c>
       <c r="K237" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="238">
@@ -10444,13 +10444,13 @@
         <v>209</v>
       </c>
       <c r="I238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J238" t="s">
         <v>27</v>
       </c>
       <c r="K238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239">
@@ -10479,7 +10479,7 @@
         <v>254</v>
       </c>
       <c r="I239" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J239" t="s">
         <v>27</v>
@@ -10546,16 +10546,16 @@
         <v>284</v>
       </c>
       <c r="H241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I241" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J241" t="s">
         <v>27</v>
       </c>
       <c r="K241" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="242">
@@ -10566,7 +10566,7 @@
         <v>140</v>
       </c>
       <c r="C242" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D242" t="s">
         <v>505</v>
@@ -10584,13 +10584,13 @@
         <v>254</v>
       </c>
       <c r="I242" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J242" t="s">
         <v>27</v>
       </c>
       <c r="K242" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="243">
@@ -10642,7 +10642,7 @@
         <v>508</v>
       </c>
       <c r="E244" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F244" t="s">
         <v>23</v>
@@ -10677,10 +10677,10 @@
         <v>509</v>
       </c>
       <c r="E245" t="s">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G245" t="s">
         <v>474</v>
@@ -10741,13 +10741,13 @@
         <v>261</v>
       </c>
       <c r="C247" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D247" t="s">
         <v>511</v>
       </c>
       <c r="E247" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F247" t="s">
         <v>512</v>
@@ -10782,7 +10782,7 @@
         <v>513</v>
       </c>
       <c r="E248" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F248" t="s">
         <v>23</v>
@@ -10811,7 +10811,7 @@
         <v>261</v>
       </c>
       <c r="C249" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D249" t="s">
         <v>514</v>
@@ -10846,7 +10846,7 @@
         <v>261</v>
       </c>
       <c r="C250" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D250" t="s">
         <v>516</v>
@@ -10870,7 +10870,7 @@
         <v>92</v>
       </c>
       <c r="K250" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="251">
@@ -10887,7 +10887,7 @@
         <v>517</v>
       </c>
       <c r="E251" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F251" t="s">
         <v>23</v>
@@ -10940,7 +10940,7 @@
         <v>229</v>
       </c>
       <c r="K252" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="253">
@@ -10951,7 +10951,7 @@
         <v>261</v>
       </c>
       <c r="C253" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D253" t="s">
         <v>519</v>
@@ -10992,7 +10992,7 @@
         <v>520</v>
       </c>
       <c r="E254" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F254" t="s">
         <v>387</v>
@@ -11010,7 +11010,7 @@
         <v>229</v>
       </c>
       <c r="K254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="255">
@@ -11027,7 +11027,7 @@
         <v>521</v>
       </c>
       <c r="E255" t="s">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="F255" t="s">
         <v>408</v>
@@ -11097,7 +11097,7 @@
         <v>523</v>
       </c>
       <c r="E257" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F257" t="s">
         <v>23</v>
@@ -11132,7 +11132,7 @@
         <v>524</v>
       </c>
       <c r="E258" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F258" t="s">
         <v>14</v>
@@ -11158,7 +11158,7 @@
         <v>258.0</v>
       </c>
       <c r="B259" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C259" t="s">
         <v>11</v>
@@ -11179,13 +11179,13 @@
         <v>214</v>
       </c>
       <c r="I259" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J259" t="s">
         <v>18</v>
       </c>
       <c r="K259" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="260">
@@ -11193,7 +11193,7 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C260" t="s">
         <v>223</v>
@@ -11202,7 +11202,7 @@
         <v>526</v>
       </c>
       <c r="E260" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F260" t="s">
         <v>23</v>
@@ -11220,7 +11220,7 @@
         <v>27</v>
       </c>
       <c r="K260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="261">
@@ -11228,10 +11228,10 @@
         <v>260.0</v>
       </c>
       <c r="B261" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C261" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D261" t="s">
         <v>527</v>
@@ -11255,7 +11255,7 @@
         <v>27</v>
       </c>
       <c r="K261" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="262">
@@ -11278,19 +11278,19 @@
         <v>142</v>
       </c>
       <c r="G262" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H262" t="s">
         <v>90</v>
       </c>
       <c r="I262" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J262" t="s">
         <v>92</v>
       </c>
       <c r="K262" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="263">
@@ -11307,13 +11307,13 @@
         <v>529</v>
       </c>
       <c r="E263" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F263" t="s">
         <v>354</v>
       </c>
       <c r="G263" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H263" t="s">
         <v>177</v>
@@ -11325,7 +11325,7 @@
         <v>18</v>
       </c>
       <c r="K263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="264">
@@ -11377,7 +11377,7 @@
         <v>531</v>
       </c>
       <c r="E265" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F265" t="s">
         <v>496</v>
@@ -11395,7 +11395,7 @@
         <v>75</v>
       </c>
       <c r="K265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="266">
@@ -11412,7 +11412,7 @@
         <v>532</v>
       </c>
       <c r="E266" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F266" t="s">
         <v>354</v>
@@ -11430,7 +11430,7 @@
         <v>533</v>
       </c>
       <c r="K266" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="267">
@@ -11447,7 +11447,7 @@
         <v>534</v>
       </c>
       <c r="E267" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F267" t="s">
         <v>362</v>
@@ -11465,7 +11465,7 @@
         <v>27</v>
       </c>
       <c r="K267" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="268">
@@ -11500,7 +11500,7 @@
         <v>18</v>
       </c>
       <c r="K268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="269">
@@ -11511,13 +11511,13 @@
         <v>62</v>
       </c>
       <c r="C269" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D269" t="s">
         <v>537</v>
       </c>
       <c r="E269" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F269" t="s">
         <v>127</v>
@@ -11535,7 +11535,7 @@
         <v>18</v>
       </c>
       <c r="K269" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="270">
@@ -11552,7 +11552,7 @@
         <v>538</v>
       </c>
       <c r="E270" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F270" t="s">
         <v>354</v>
@@ -11570,7 +11570,7 @@
         <v>27</v>
       </c>
       <c r="K270" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="271">
@@ -11605,7 +11605,7 @@
         <v>229</v>
       </c>
       <c r="K271" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="272">
@@ -11651,7 +11651,7 @@
         <v>62</v>
       </c>
       <c r="C273" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D273" t="s">
         <v>542</v>
@@ -11701,7 +11701,7 @@
         <v>307</v>
       </c>
       <c r="H274" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I274" t="s">
         <v>69</v>
@@ -11710,7 +11710,7 @@
         <v>18</v>
       </c>
       <c r="K274" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="275">
@@ -11727,7 +11727,7 @@
         <v>545</v>
       </c>
       <c r="E275" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F275" t="s">
         <v>23</v>
@@ -11774,7 +11774,7 @@
         <v>547</v>
       </c>
       <c r="I276" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J276" t="s">
         <v>27</v>
@@ -11797,7 +11797,7 @@
         <v>548</v>
       </c>
       <c r="E277" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F277" t="s">
         <v>23</v>
@@ -11850,7 +11850,7 @@
         <v>27</v>
       </c>
       <c r="K278" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="279">
@@ -11914,7 +11914,7 @@
         <v>459</v>
       </c>
       <c r="I280" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J280" t="s">
         <v>18</v>
@@ -11937,7 +11937,7 @@
         <v>553</v>
       </c>
       <c r="E281" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F281" t="s">
         <v>552</v>
@@ -11978,7 +11978,7 @@
         <v>23</v>
       </c>
       <c r="G282" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H282" t="s">
         <v>137</v>
@@ -11990,7 +11990,7 @@
         <v>27</v>
       </c>
       <c r="K282" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="283">
@@ -12019,13 +12019,13 @@
         <v>410</v>
       </c>
       <c r="I283" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J283" t="s">
         <v>18</v>
       </c>
       <c r="K283" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="284">
@@ -12054,7 +12054,7 @@
         <v>436</v>
       </c>
       <c r="I284" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J284" t="s">
         <v>18</v>
@@ -12112,7 +12112,7 @@
         <v>558</v>
       </c>
       <c r="E286" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F286" t="s">
         <v>23</v>
@@ -12130,7 +12130,7 @@
         <v>18</v>
       </c>
       <c r="K286" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="287">
@@ -12165,7 +12165,7 @@
         <v>75</v>
       </c>
       <c r="K287" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="288">
@@ -12182,7 +12182,7 @@
         <v>561</v>
       </c>
       <c r="E288" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F288" t="s">
         <v>174</v>
@@ -12200,7 +12200,7 @@
         <v>18</v>
       </c>
       <c r="K288" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="289">
@@ -12217,7 +12217,7 @@
         <v>562</v>
       </c>
       <c r="E289" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F289" t="s">
         <v>274</v>
@@ -12235,7 +12235,7 @@
         <v>75</v>
       </c>
       <c r="K289" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="290">
@@ -12252,7 +12252,7 @@
         <v>563</v>
       </c>
       <c r="E290" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F290" t="s">
         <v>408</v>
@@ -12270,7 +12270,7 @@
         <v>75</v>
       </c>
       <c r="K290" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="291">
@@ -12287,7 +12287,7 @@
         <v>564</v>
       </c>
       <c r="E291" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F291" t="s">
         <v>23</v>
@@ -12322,7 +12322,7 @@
         <v>565</v>
       </c>
       <c r="E292" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F292" t="s">
         <v>23</v>
@@ -12357,13 +12357,13 @@
         <v>566</v>
       </c>
       <c r="E293" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F293" t="s">
         <v>23</v>
       </c>
       <c r="G293" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H293" t="s">
         <v>156</v>
@@ -12375,7 +12375,7 @@
         <v>27</v>
       </c>
       <c r="K293" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="294">
@@ -12392,7 +12392,7 @@
         <v>567</v>
       </c>
       <c r="E294" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F294" t="s">
         <v>23</v>
@@ -12445,7 +12445,7 @@
         <v>27</v>
       </c>
       <c r="K295" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="296">
@@ -12462,7 +12462,7 @@
         <v>570</v>
       </c>
       <c r="E296" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F296" t="s">
         <v>23</v>
@@ -12491,13 +12491,13 @@
         <v>145</v>
       </c>
       <c r="C297" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D297" t="s">
         <v>571</v>
       </c>
       <c r="E297" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F297" t="s">
         <v>23</v>
@@ -12550,7 +12550,7 @@
         <v>75</v>
       </c>
       <c r="K298" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="299">
@@ -12602,7 +12602,7 @@
         <v>575</v>
       </c>
       <c r="E300" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F300" t="s">
         <v>393</v>
@@ -12611,7 +12611,7 @@
         <v>111</v>
       </c>
       <c r="H300" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I300" t="s">
         <v>34</v>
@@ -12620,7 +12620,7 @@
         <v>75</v>
       </c>
       <c r="K300" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="301">
@@ -12631,7 +12631,7 @@
         <v>70</v>
       </c>
       <c r="C301" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D301" t="s">
         <v>576</v>
@@ -12655,7 +12655,7 @@
         <v>27</v>
       </c>
       <c r="K301" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="302">
@@ -12672,7 +12672,7 @@
         <v>577</v>
       </c>
       <c r="E302" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F302" t="s">
         <v>496</v>
@@ -12690,7 +12690,7 @@
         <v>27</v>
       </c>
       <c r="K302" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="303">
@@ -12742,7 +12742,7 @@
         <v>579</v>
       </c>
       <c r="E304" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F304" t="s">
         <v>580</v>
@@ -12789,13 +12789,13 @@
         <v>211</v>
       </c>
       <c r="I305" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J305" t="s">
         <v>27</v>
       </c>
       <c r="K305" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="306">
@@ -12812,7 +12812,7 @@
         <v>583</v>
       </c>
       <c r="E306" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F306" t="s">
         <v>238</v>
@@ -12830,7 +12830,7 @@
         <v>27</v>
       </c>
       <c r="K306" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="307">
@@ -12865,7 +12865,7 @@
         <v>18</v>
       </c>
       <c r="K307" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="308">
@@ -12882,7 +12882,7 @@
         <v>585</v>
       </c>
       <c r="E308" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F308" t="s">
         <v>168</v>
@@ -12900,7 +12900,7 @@
         <v>27</v>
       </c>
       <c r="K308" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="309">
@@ -12917,7 +12917,7 @@
         <v>586</v>
       </c>
       <c r="E309" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F309" t="s">
         <v>398</v>
@@ -12935,7 +12935,7 @@
         <v>18</v>
       </c>
       <c r="K309" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="310">
@@ -12952,7 +12952,7 @@
         <v>587</v>
       </c>
       <c r="E310" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F310" t="s">
         <v>23</v>
@@ -12964,13 +12964,13 @@
         <v>156</v>
       </c>
       <c r="I310" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J310" t="s">
         <v>27</v>
       </c>
       <c r="K310" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="311">
@@ -12987,7 +12987,7 @@
         <v>588</v>
       </c>
       <c r="E311" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F311" t="s">
         <v>274</v>
@@ -13005,7 +13005,7 @@
         <v>27</v>
       </c>
       <c r="K311" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="312">
@@ -13040,7 +13040,7 @@
         <v>18</v>
       </c>
       <c r="K312" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="313">
@@ -13092,7 +13092,7 @@
         <v>592</v>
       </c>
       <c r="E314" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F314" t="s">
         <v>372</v>
@@ -13104,13 +13104,13 @@
         <v>155</v>
       </c>
       <c r="I314" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J314" t="s">
         <v>229</v>
       </c>
       <c r="K314" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="315">
@@ -13127,7 +13127,7 @@
         <v>593</v>
       </c>
       <c r="E315" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F315" t="s">
         <v>372</v>
@@ -13162,7 +13162,7 @@
         <v>594</v>
       </c>
       <c r="E316" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F316" t="s">
         <v>189</v>
@@ -13215,7 +13215,7 @@
         <v>75</v>
       </c>
       <c r="K317" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="318">
@@ -13267,7 +13267,7 @@
         <v>597</v>
       </c>
       <c r="E319" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F319" t="s">
         <v>408</v>
@@ -13296,7 +13296,7 @@
         <v>590</v>
       </c>
       <c r="C320" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D320" t="s">
         <v>598</v>
@@ -13314,13 +13314,13 @@
         <v>94</v>
       </c>
       <c r="I320" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J320" t="s">
         <v>27</v>
       </c>
       <c r="K320" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="321">
@@ -13355,7 +13355,7 @@
         <v>229</v>
       </c>
       <c r="K321" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="322">
@@ -13384,13 +13384,13 @@
         <v>94</v>
       </c>
       <c r="I322" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J322" t="s">
         <v>27</v>
       </c>
       <c r="K322" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="323">
@@ -13436,13 +13436,13 @@
         <v>590</v>
       </c>
       <c r="C324" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D324" t="s">
         <v>603</v>
       </c>
       <c r="E324" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F324" t="s">
         <v>604</v>
@@ -13495,7 +13495,7 @@
         <v>75</v>
       </c>
       <c r="K325" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="326">
@@ -13512,7 +13512,7 @@
         <v>606</v>
       </c>
       <c r="E326" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F326" t="s">
         <v>536</v>
@@ -13547,7 +13547,7 @@
         <v>607</v>
       </c>
       <c r="E327" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F327" t="s">
         <v>306</v>
@@ -13565,7 +13565,7 @@
         <v>229</v>
       </c>
       <c r="K327" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="328">
@@ -13582,7 +13582,7 @@
         <v>608</v>
       </c>
       <c r="E328" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F328" t="s">
         <v>512</v>
@@ -13617,7 +13617,7 @@
         <v>610</v>
       </c>
       <c r="E329" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F329" t="s">
         <v>23</v>
@@ -13652,7 +13652,7 @@
         <v>611</v>
       </c>
       <c r="E330" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F330" t="s">
         <v>23</v>
@@ -13664,7 +13664,7 @@
         <v>289</v>
       </c>
       <c r="I330" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J330" t="s">
         <v>27</v>
@@ -13699,7 +13699,7 @@
         <v>108</v>
       </c>
       <c r="I331" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J331" t="s">
         <v>75</v>
@@ -13734,7 +13734,7 @@
         <v>108</v>
       </c>
       <c r="I332" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J332" t="s">
         <v>75</v>
@@ -13769,7 +13769,7 @@
         <v>289</v>
       </c>
       <c r="I333" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J333" t="s">
         <v>27</v>
@@ -13786,13 +13786,13 @@
         <v>609</v>
       </c>
       <c r="C334" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D334" t="s">
         <v>615</v>
       </c>
       <c r="E334" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F334" t="s">
         <v>23</v>
@@ -13804,7 +13804,7 @@
         <v>389</v>
       </c>
       <c r="I334" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J334" t="s">
         <v>27</v>
@@ -13827,7 +13827,7 @@
         <v>616</v>
       </c>
       <c r="E335" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F335" t="s">
         <v>23</v>
@@ -13845,7 +13845,7 @@
         <v>75</v>
       </c>
       <c r="K335" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="336">
@@ -13856,7 +13856,7 @@
         <v>609</v>
       </c>
       <c r="C336" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D336" t="s">
         <v>618</v>
@@ -13897,7 +13897,7 @@
         <v>619</v>
       </c>
       <c r="E337" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F337" t="s">
         <v>393</v>
@@ -13915,7 +13915,7 @@
         <v>75</v>
       </c>
       <c r="K337" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="338">
@@ -13944,7 +13944,7 @@
         <v>289</v>
       </c>
       <c r="I338" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J338" t="s">
         <v>27</v>
@@ -13967,7 +13967,7 @@
         <v>621</v>
       </c>
       <c r="E339" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F339" t="s">
         <v>23</v>
@@ -13979,7 +13979,7 @@
         <v>389</v>
       </c>
       <c r="I339" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J339" t="s">
         <v>27</v>
@@ -14002,7 +14002,7 @@
         <v>622</v>
       </c>
       <c r="E340" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F340" t="s">
         <v>23</v>
@@ -14014,7 +14014,7 @@
         <v>277</v>
       </c>
       <c r="I340" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J340" t="s">
         <v>27</v>
@@ -14072,7 +14072,7 @@
         <v>625</v>
       </c>
       <c r="E342" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F342" t="s">
         <v>23</v>
@@ -14090,7 +14090,7 @@
         <v>27</v>
       </c>
       <c r="K342" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="343">
@@ -14107,7 +14107,7 @@
         <v>627</v>
       </c>
       <c r="E343" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F343" t="s">
         <v>23</v>
@@ -14125,7 +14125,7 @@
         <v>18</v>
       </c>
       <c r="K343" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="344">
@@ -14212,7 +14212,7 @@
         <v>632</v>
       </c>
       <c r="E346" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F346" t="s">
         <v>633</v>
@@ -14230,7 +14230,7 @@
         <v>75</v>
       </c>
       <c r="K346" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="347">
@@ -14247,7 +14247,7 @@
         <v>634</v>
       </c>
       <c r="E347" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F347" t="s">
         <v>78</v>
@@ -14265,7 +14265,7 @@
         <v>75</v>
       </c>
       <c r="K347" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="348">
@@ -14300,7 +14300,7 @@
         <v>27</v>
       </c>
       <c r="K348" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="349">
@@ -14329,13 +14329,13 @@
         <v>436</v>
       </c>
       <c r="I349" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J349" t="s">
         <v>27</v>
       </c>
       <c r="K349" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="350">
@@ -14405,7 +14405,7 @@
         <v>27</v>
       </c>
       <c r="K351" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="352">
@@ -14440,7 +14440,7 @@
         <v>75</v>
       </c>
       <c r="K352" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="353">
@@ -14457,7 +14457,7 @@
         <v>641</v>
       </c>
       <c r="E353" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F353" t="s">
         <v>23</v>
@@ -14475,7 +14475,7 @@
         <v>27</v>
       </c>
       <c r="K353" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="354">
@@ -14562,7 +14562,7 @@
         <v>646</v>
       </c>
       <c r="E356" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F356" t="s">
         <v>23</v>
@@ -14580,7 +14580,7 @@
         <v>27</v>
       </c>
       <c r="K356" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="357">
@@ -14615,7 +14615,7 @@
         <v>18</v>
       </c>
       <c r="K357" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="358">
@@ -14632,7 +14632,7 @@
         <v>648</v>
       </c>
       <c r="E358" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F358" t="s">
         <v>83</v>
@@ -14650,7 +14650,7 @@
         <v>27</v>
       </c>
       <c r="K358" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="359">
@@ -14696,7 +14696,7 @@
         <v>645</v>
       </c>
       <c r="C360" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D360" t="s">
         <v>650</v>
@@ -14714,13 +14714,13 @@
         <v>99</v>
       </c>
       <c r="I360" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J360" t="s">
         <v>27</v>
       </c>
       <c r="K360" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="361">
@@ -14731,13 +14731,13 @@
         <v>645</v>
       </c>
       <c r="C361" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D361" t="s">
         <v>651</v>
       </c>
       <c r="E361" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F361" t="s">
         <v>73</v>
@@ -14755,7 +14755,7 @@
         <v>75</v>
       </c>
       <c r="K361" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="362">
@@ -14784,13 +14784,13 @@
         <v>653</v>
       </c>
       <c r="I362" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J362" t="s">
         <v>27</v>
       </c>
       <c r="K362" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="363">
@@ -14825,7 +14825,7 @@
         <v>27</v>
       </c>
       <c r="K363" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="364">
@@ -14842,7 +14842,7 @@
         <v>656</v>
       </c>
       <c r="E364" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F364" t="s">
         <v>23</v>
@@ -14854,13 +14854,13 @@
         <v>16</v>
       </c>
       <c r="I364" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J364" t="s">
         <v>27</v>
       </c>
       <c r="K364" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="365">
@@ -14877,7 +14877,7 @@
         <v>657</v>
       </c>
       <c r="E365" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F365" t="s">
         <v>23</v>
@@ -14889,13 +14889,13 @@
         <v>289</v>
       </c>
       <c r="I365" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J365" t="s">
         <v>27</v>
       </c>
       <c r="K365" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="366">
@@ -14912,7 +14912,7 @@
         <v>658</v>
       </c>
       <c r="E366" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F366" t="s">
         <v>23</v>
@@ -14924,13 +14924,13 @@
         <v>268</v>
       </c>
       <c r="I366" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J366" t="s">
         <v>18</v>
       </c>
       <c r="K366" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="367">
@@ -14947,7 +14947,7 @@
         <v>659</v>
       </c>
       <c r="E367" t="s">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="F367" t="s">
         <v>23</v>
@@ -14982,7 +14982,7 @@
         <v>660</v>
       </c>
       <c r="E368" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F368" t="s">
         <v>23</v>
@@ -15017,7 +15017,7 @@
         <v>661</v>
       </c>
       <c r="E369" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F369" t="s">
         <v>23</v>
@@ -15035,7 +15035,7 @@
         <v>18</v>
       </c>
       <c r="K369" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="370">
@@ -15064,7 +15064,7 @@
         <v>171</v>
       </c>
       <c r="I370" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J370" t="s">
         <v>18</v>
@@ -15081,7 +15081,7 @@
         <v>655</v>
       </c>
       <c r="C371" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D371" t="s">
         <v>663</v>
@@ -15099,7 +15099,7 @@
         <v>275</v>
       </c>
       <c r="I371" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J371" t="s">
         <v>27</v>
@@ -15192,7 +15192,7 @@
         <v>667</v>
       </c>
       <c r="E374" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F374" t="s">
         <v>23</v>
@@ -15210,7 +15210,7 @@
         <v>27</v>
       </c>
       <c r="K374" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="375">
@@ -15256,13 +15256,13 @@
         <v>655</v>
       </c>
       <c r="C376" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D376" t="s">
         <v>670</v>
       </c>
       <c r="E376" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F376" t="s">
         <v>23</v>
@@ -15280,7 +15280,7 @@
         <v>27</v>
       </c>
       <c r="K376" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="377">
@@ -15315,7 +15315,7 @@
         <v>27</v>
       </c>
       <c r="K377" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="378">
@@ -15332,7 +15332,7 @@
         <v>672</v>
       </c>
       <c r="E378" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F378" t="s">
         <v>23</v>
@@ -15350,7 +15350,7 @@
         <v>27</v>
       </c>
       <c r="K378" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="379">
@@ -15402,7 +15402,7 @@
         <v>675</v>
       </c>
       <c r="E380" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F380" t="s">
         <v>168</v>
@@ -15411,7 +15411,7 @@
         <v>171</v>
       </c>
       <c r="H380" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I380" t="s">
         <v>69</v>
@@ -15420,7 +15420,7 @@
         <v>18</v>
       </c>
       <c r="K380" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="381">
@@ -15437,7 +15437,7 @@
         <v>676</v>
       </c>
       <c r="E381" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F381" t="s">
         <v>306</v>
@@ -15455,7 +15455,7 @@
         <v>18</v>
       </c>
       <c r="K381" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="382">
@@ -15472,7 +15472,7 @@
         <v>677</v>
       </c>
       <c r="E382" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F382" t="s">
         <v>306</v>
@@ -15490,7 +15490,7 @@
         <v>229</v>
       </c>
       <c r="K382" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="383">
@@ -15542,7 +15542,7 @@
         <v>680</v>
       </c>
       <c r="E384" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F384" t="s">
         <v>23</v>
@@ -15560,7 +15560,7 @@
         <v>27</v>
       </c>
       <c r="K384" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="385">
@@ -15577,7 +15577,7 @@
         <v>681</v>
       </c>
       <c r="E385" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F385" t="s">
         <v>274</v>
@@ -15595,7 +15595,7 @@
         <v>18</v>
       </c>
       <c r="K385" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="386">
@@ -15606,7 +15606,7 @@
         <v>679</v>
       </c>
       <c r="C386" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D386" t="s">
         <v>682</v>
@@ -15630,7 +15630,7 @@
         <v>27</v>
       </c>
       <c r="K386" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="387">
@@ -15647,7 +15647,7 @@
         <v>684</v>
       </c>
       <c r="E387" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F387" t="s">
         <v>23</v>
@@ -15665,7 +15665,7 @@
         <v>27</v>
       </c>
       <c r="K387" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="388">
@@ -15700,7 +15700,7 @@
         <v>75</v>
       </c>
       <c r="K388" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
